--- a/excel/int_95_espera.xlsx
+++ b/excel/int_95_espera.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[2.852300659259985, 2.8533760985444703]</t>
+          <t>[5.556011250505527, 18.14424131249934]</t>
         </is>
       </c>
     </row>
